--- a/UseCase/Descrição UseCases/CarroPronto.xlsx
+++ b/UseCase/Descrição UseCases/CarroPronto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC67AEC-8C09-436F-A6F0-F917B93387A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,13 +88,13 @@
     <t>5.1 Sistema indica que carro não está no sistema</t>
   </si>
   <si>
-    <t>5.2 Regressa a 2</t>
+    <t>Regressa a 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -301,6 +302,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,9 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,11 +636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,40 +655,40 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -698,71 +699,71 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4"/>
@@ -771,14 +772,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
     </row>
